--- a/dataset/calls/engine.xlsx
+++ b/dataset/calls/engine.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,15 +827,29 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44341.94051049672</v>
+        <v>44341.94051049768</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44341.94111316738</v>
+        <v>44341.9411131713</v>
       </c>
       <c r="C29" t="n">
         <v>52.069739</v>
       </c>
       <c r="D29" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44341.9411136834</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>44341.94176854265</v>
+      </c>
+      <c r="C30" t="n">
+        <v>56.578495</v>
+      </c>
+      <c r="D30" t="n">
         <v>200</v>
       </c>
     </row>
